--- a/会养车/buglist.xlsx
+++ b/会养车/buglist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>缺陷描述</t>
   </si>
@@ -31,6 +31,29 @@
   </si>
   <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>程序启动后展示启动页</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>【功能-启动】无开机启动页面</t>
+  </si>
+  <si>
+    <t>【功能-首页】轮播图无法左右滑动</t>
+  </si>
+  <si>
+    <t>轮播图可以左右循环滑动</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【功能-启动】
+首次启动没有做定位许可并未出现城市选择页面
+</t>
+  </si>
+  <si>
+    <t>第一次启动应用，应该定位（iOS这里会弹出一个定位许可，按照Android常规来做即可），并出现城市选择页面</t>
   </si>
 </sst>
 </file>
@@ -153,18 +176,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -499,23 +559,23 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="43" style="3" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="61.5" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="43" style="16" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="61.5" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" ht="57" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -525,133 +585,275 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="57" customHeight="1">
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A2" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4" ht="57" customHeight="1">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="57" customHeight="1">
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="57" customHeight="1">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A5" s="13"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="57" customHeight="1">
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A6" s="13"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="57" customHeight="1">
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A7" s="13"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="57" customHeight="1">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="57" customHeight="1">
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="57" customHeight="1">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="57" customHeight="1">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="57" customHeight="1">
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="57" customHeight="1">
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A13" s="13"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="57" customHeight="1">
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="57" customHeight="1">
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A15" s="13"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="57" customHeight="1">
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A16" s="13"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="5"/>
     </row>
-    <row r="18" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="18" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="21" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="22" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="23" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="24" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="25" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="26" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="27" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="28" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="29" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="30" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="31" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="4:4" s="4" customFormat="1" ht="57" customHeight="1">
+    <row r="32" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="5"/>
     </row>
-    <row r="33" spans="1:4" ht="57" customHeight="1">
+    <row r="33" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="5"/>
     </row>
-    <row r="34" spans="1:4" ht="57" customHeight="1">
+    <row r="34" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="5"/>
     </row>
-    <row r="35" spans="1:4" ht="57" customHeight="1">
+    <row r="35" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="5"/>
     </row>
-    <row r="36" spans="1:4" ht="57" customHeight="1">
+    <row r="36" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" ht="57" customHeight="1">
+    <row r="37" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A37" s="13"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="5"/>
     </row>
-    <row r="38" spans="1:4" ht="57" customHeight="1">
+    <row r="38" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A38" s="13"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" ht="57" customHeight="1">
+    <row r="39" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A39" s="13"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="57" customHeight="1">
+    <row r="40" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A40" s="13"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="57" customHeight="1">
+    <row r="41" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A41" s="13"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="57" customHeight="1">
+    <row r="42" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A42" s="13"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="57" customHeight="1">
-      <c r="A43" s="6"/>
-      <c r="B43" s="7"/>
-      <c r="D43" s="8"/>
+    <row r="43" spans="1:4" s="4" customFormat="1" ht="57" customHeight="1">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
